--- a/public/formatos/cadenas.xlsx
+++ b/public/formatos/cadenas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>CODIGO UNIVERSAL</t>
   </si>
@@ -35,13 +35,16 @@
   </si>
   <si>
     <t>PITCH</t>
+  </si>
+  <si>
+    <t>cadenas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -58,6 +61,10 @@
       <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -77,16 +84,16 @@
   <borders count="2">
     <border/>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -94,15 +101,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -320,14 +333,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.71"/>
-    <col customWidth="1" min="2" max="2" width="10.29"/>
-    <col customWidth="1" min="3" max="3" width="19.43"/>
-    <col customWidth="1" min="4" max="4" width="11.86"/>
-    <col customWidth="1" min="5" max="5" width="4.29"/>
-    <col customWidth="1" min="6" max="6" width="5.86"/>
-    <col customWidth="1" min="7" max="7" width="9.0"/>
-    <col customWidth="1" min="8" max="8" width="5.0"/>
+    <col customWidth="1" min="1" max="1" width="16.57"/>
+    <col customWidth="1" min="8" max="8" width="16.86"/>
+    <col customWidth="1" min="10" max="10" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -355,6 +363,29 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
